--- a/data/trans_orig/P14A34-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A34-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A811CCE2-9C7B-4538-B214-A3EC8CFF171F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5415B2C-1AAA-48CE-B47B-CE0BA987B290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{55986C4C-1F7E-4BAE-B771-C76F23969323}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A6299F93-BDA6-4D36-9167-EEA2EE4E2FE9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -84,7 +84,7 @@
     <t>94,25%</t>
   </si>
   <si>
-    <t>67,35%</t>
+    <t>73,47%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -96,7 +96,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>32,65%</t>
+    <t>26,53%</t>
   </si>
   <si>
     <t>100%</t>
@@ -120,19 +120,19 @@
     <t>80,87%</t>
   </si>
   <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
   </si>
   <si>
     <t>19,13%</t>
   </si>
   <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -141,13 +141,13 @@
     <t>82,64%</t>
   </si>
   <si>
-    <t>32,17%</t>
+    <t>32,82%</t>
   </si>
   <si>
     <t>17,36%</t>
   </si>
   <si>
-    <t>67,83%</t>
+    <t>67,18%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -159,19 +159,19 @@
     <t>67,32%</t>
   </si>
   <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
   </si>
   <si>
     <t>32,68%</t>
   </si>
   <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -180,37 +180,37 @@
     <t>87,78%</t>
   </si>
   <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
   </si>
   <si>
     <t>12,22%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
   </si>
   <si>
     <t>83,85%</t>
   </si>
   <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
   </si>
   <si>
     <t>16,15%</t>
   </si>
   <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -222,25 +222,25 @@
     <t>88,27%</t>
   </si>
   <si>
-    <t>66,53%</t>
+    <t>65,23%</t>
   </si>
   <si>
     <t>11,73%</t>
   </si>
   <si>
-    <t>33,47%</t>
+    <t>34,77%</t>
   </si>
   <si>
     <t>89,09%</t>
   </si>
   <si>
-    <t>55,31%</t>
+    <t>55,39%</t>
   </si>
   <si>
     <t>10,91%</t>
   </si>
   <si>
-    <t>44,69%</t>
+    <t>44,61%</t>
   </si>
   <si>
     <t>89,47%</t>
@@ -270,55 +270,55 @@
     <t>74,04%</t>
   </si>
   <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
   </si>
   <si>
     <t>25,96%</t>
   </si>
   <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
   </si>
   <si>
     <t>73,49%</t>
   </si>
   <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
   </si>
   <si>
     <t>26,51%</t>
   </si>
   <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
   </si>
   <si>
     <t>86,32%</t>
   </si>
   <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
   </si>
   <si>
     <t>13,68%</t>
   </si>
   <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
   </si>
 </sst>
 </file>
@@ -730,7 +730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865E9374-2B46-4C5E-825B-36FC62C0CC2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0568826E-4E6B-4A5F-AD5D-4632DACB17B3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2195,7 +2195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A0FC22-9A60-4FC0-B649-636977E1C6F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CACF913-067F-401F-BDBB-0F193A32689E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A34-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A34-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5415B2C-1AAA-48CE-B47B-CE0BA987B290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB6B2773-6983-4732-B028-173349D7B7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A6299F93-BDA6-4D36-9167-EEA2EE4E2FE9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1171ACC0-A5F6-4B70-89FF-C24939E08731}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -84,7 +84,7 @@
     <t>94,25%</t>
   </si>
   <si>
-    <t>73,47%</t>
+    <t>73,32%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -96,7 +96,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>26,53%</t>
+    <t>26,68%</t>
   </si>
   <si>
     <t>100%</t>
@@ -120,19 +120,19 @@
     <t>80,87%</t>
   </si>
   <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
   </si>
   <si>
     <t>19,13%</t>
   </si>
   <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -141,13 +141,13 @@
     <t>82,64%</t>
   </si>
   <si>
-    <t>32,82%</t>
+    <t>31,52%</t>
   </si>
   <si>
     <t>17,36%</t>
   </si>
   <si>
-    <t>67,18%</t>
+    <t>68,48%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -159,19 +159,19 @@
     <t>67,32%</t>
   </si>
   <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
   </si>
   <si>
     <t>32,68%</t>
   </si>
   <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -180,67 +180,67 @@
     <t>87,78%</t>
   </si>
   <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
   </si>
   <si>
     <t>12,22%</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
   </si>
   <si>
     <t>83,85%</t>
   </si>
   <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
   </si>
   <si>
     <t>16,15%</t>
   </si>
   <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por trastornos de próstata en 2015 (Tasa respuesta: 1,74%)</t>
+    <t>Población que recibe medicación o terapia por trastornos de próstata en 2016 (Tasa respuesta: 1,74%)</t>
   </si>
   <si>
     <t>88,27%</t>
   </si>
   <si>
-    <t>65,23%</t>
+    <t>62,89%</t>
   </si>
   <si>
     <t>11,73%</t>
   </si>
   <si>
-    <t>34,77%</t>
+    <t>37,11%</t>
   </si>
   <si>
     <t>89,09%</t>
   </si>
   <si>
-    <t>55,39%</t>
+    <t>55,11%</t>
   </si>
   <si>
     <t>10,91%</t>
   </si>
   <si>
-    <t>44,61%</t>
+    <t>44,89%</t>
   </si>
   <si>
     <t>89,47%</t>
@@ -270,55 +270,55 @@
     <t>74,04%</t>
   </si>
   <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
   </si>
   <si>
     <t>25,96%</t>
   </si>
   <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
   </si>
   <si>
     <t>73,49%</t>
   </si>
   <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
   </si>
   <si>
     <t>26,51%</t>
   </si>
   <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
   </si>
   <si>
     <t>86,32%</t>
   </si>
   <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
   </si>
   <si>
     <t>13,68%</t>
   </si>
   <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
   </si>
 </sst>
 </file>
@@ -730,7 +730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0568826E-4E6B-4A5F-AD5D-4632DACB17B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A955DF72-172E-4568-9D94-AFBC310D9664}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2195,7 +2195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CACF913-067F-401F-BDBB-0F193A32689E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82CFA0AC-7804-4F15-8589-21CEA35D5B23}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
